--- a/input/images/DAK_scheduling logic_template_v2.1.xlsx
+++ b/input/images/DAK_scheduling logic_template_v2.1.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg.sharepoint.com/sites/InternalComputableGuidelinesWorkingGroup/Shared Documents/General/11. SOP/L2 SOP (work in progress)/L2 templates/GitHub templates (external)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="307" documentId="8_{FABA57D9-5381-4BA5-9EA2-C76C72FE265F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B75DDF32-3407-4662-A39B-CEA998345170}"/>
+  <xr:revisionPtr revIDLastSave="310" documentId="8_{FABA57D9-5381-4BA5-9EA2-C76C72FE265F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7EDE820-49B1-4DFF-97AE-A76173605F17}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D729ECD-ABB9-4D06-ACD8-AACFCEA5F9F1}"/>
   </bookViews>
@@ -98,30 +98,6 @@
           </rPr>
           <t xml:space="preserve">Please provide in this table the list of all the scheduling logic tables. Add/remove rows and update the text in red as needed. 
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{BE65A6D6-59C2-4ED4-86A8-7EB75FFFD028}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Note for the author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Please edit in the row above the text highlighted in red.</t>
         </r>
       </text>
     </comment>
@@ -3420,9 +3396,6 @@
     <t>IMMZ.D18</t>
   </si>
   <si>
-    <t>Template Date: April 07, 2025</t>
-  </si>
-  <si>
     <t>This is the running number of the scheduling logic. It helps ensure linkages and facilitated cross-references to the data dictionary  (e.g. “XYZ123.S.1” where XYZ is the Process ID, 123 is the activity number,  S is the abbreviation for "scheduling logic" and 1 is the running number).</t>
   </si>
   <si>
@@ -3547,14 +3520,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Organization] [year]</t>
+      <t>© World Health Organization 2025</t>
     </r>
     <r>
       <rPr>
@@ -3595,6 +3561,9 @@
 All reasonable precautions have been taken by WHO to verify the information contained in this publication. However, the published material is being distributed without warranty of any kind, either expressed or implied. The responsibility for the interpretation and use of the material lies with the reader. In no event shall WHO be liable for damages arising from its use.
 Any dispute arising from or relating to this license, including its validity, interpretation, or application, shall, unless amicably settled, be subject to conciliation. In the event the dispute is not resolved by conciliation within thirty (30) days, the dispute shall be settled by arbitration. The arbitration shall be conducted in accordance with the modalities to be agreed upon by the parties or, in the absence of agreement within thirty (30) days of written communication of the intent to commence arbitration, with the UNCITRAL Arbitration Rules. The parties shall accept the arbitral award as final.</t>
     </r>
+  </si>
+  <si>
+    <t>Template Date: April 14, 2025</t>
   </si>
 </sst>
 </file>
@@ -5991,8 +5960,8 @@
   </sheetPr>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6017,7 +5986,7 @@
     </row>
     <row r="2" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="161" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C2" s="161"/>
       <c r="D2" s="161"/>
@@ -6033,7 +6002,7 @@
     </row>
     <row r="4" spans="1:5" ht="126" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="163" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C4" s="163"/>
       <c r="D4" s="163"/>
@@ -6085,21 +6054,20 @@
     <row r="10" spans="1:5" s="15" customFormat="1" ht="194.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22"/>
       <c r="B10" s="158" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C10" s="158"/>
       <c r="D10" s="158"/>
       <c r="E10" s="158"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="132" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="132" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -6179,7 +6147,7 @@
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="147" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6328,7 +6296,7 @@
         <v>35</v>
       </c>
       <c r="C24" s="171" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D24" s="172"/>
     </row>
@@ -9476,7 +9444,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="213" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D3" s="214"/>
       <c r="E3" s="214"/>
@@ -9561,7 +9529,7 @@
     </row>
     <row r="9" spans="2:8" ht="135" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B9" s="99" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C9" s="143" t="s">
         <v>44</v>
@@ -9584,7 +9552,7 @@
     </row>
     <row r="10" spans="2:8" ht="120" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="99" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C10" s="103" t="s">
         <v>50</v>
@@ -9880,6 +9848,54 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="db15119c-9bb3-4b2d-aba7-a20f2bdcd107">
+      <UserInfo>
+        <DisplayName>BORG, Sarah Ann</DisplayName>
+        <AccountId>39</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>DUVALL, Susan</DisplayName>
+        <AccountId>31</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>RATANAPRAYUL, Natschja</DisplayName>
+        <AccountId>7</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>RAMJAUN, Mohammad Shehzaad</DisplayName>
+        <AccountId>44</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>MACCHAGIRI, Vineel Chandra</DisplayName>
+        <AccountId>53</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>GAFFIELD, Mary Eluned</DisplayName>
+        <AccountId>12</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>gndirangu</DisplayName>
+        <AccountId>103</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ce1eb032-f7c0-42b6-914e-65a5c98ce8c4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="db15119c-9bb3-4b2d-aba7-a20f2bdcd107" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9888,7 +9904,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006553529D1FC6824CBA83EEDA5E51662C" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5fd9d8df0be95803e7319e4e8fd6e517">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ce1eb032-f7c0-42b6-914e-65a5c98ce8c4" xmlns:ns3="db15119c-9bb3-4b2d-aba7-a20f2bdcd107" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e496dec2d1664ef4f95c2258d1ac145" ns2:_="" ns3:_="">
     <xsd:import namespace="ce1eb032-f7c0-42b6-914e-65a5c98ce8c4"/>
@@ -10143,55 +10159,20 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="db15119c-9bb3-4b2d-aba7-a20f2bdcd107">
-      <UserInfo>
-        <DisplayName>BORG, Sarah Ann</DisplayName>
-        <AccountId>39</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>DUVALL, Susan</DisplayName>
-        <AccountId>31</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>RATANAPRAYUL, Natschja</DisplayName>
-        <AccountId>7</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>RAMJAUN, Mohammad Shehzaad</DisplayName>
-        <AccountId>44</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>MACCHAGIRI, Vineel Chandra</DisplayName>
-        <AccountId>53</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>GAFFIELD, Mary Eluned</DisplayName>
-        <AccountId>12</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>gndirangu</DisplayName>
-        <AccountId>103</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ce1eb032-f7c0-42b6-914e-65a5c98ce8c4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="db15119c-9bb3-4b2d-aba7-a20f2bdcd107" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD935512-F454-4A53-8449-95D547709634}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="51983ca6-de84-41fa-9a65-1d08ee1009bc"/>
+    <ds:schemaRef ds:uri="73389989-ac93-4f39-a9f3-2949bbf25fcc"/>
+    <ds:schemaRef ds:uri="db15119c-9bb3-4b2d-aba7-a20f2bdcd107"/>
+    <ds:schemaRef ds:uri="ce1eb032-f7c0-42b6-914e-65a5c98ce8c4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45D0A8BA-5511-40DD-A144-F9F7C2155F2F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -10199,7 +10180,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D01220B-FCBF-438E-84D6-AECA92EE523A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10216,17 +10197,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD935512-F454-4A53-8449-95D547709634}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="51983ca6-de84-41fa-9a65-1d08ee1009bc"/>
-    <ds:schemaRef ds:uri="73389989-ac93-4f39-a9f3-2949bbf25fcc"/>
-    <ds:schemaRef ds:uri="db15119c-9bb3-4b2d-aba7-a20f2bdcd107"/>
-    <ds:schemaRef ds:uri="ce1eb032-f7c0-42b6-914e-65a5c98ce8c4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/input/images/DAK_scheduling logic_template_v2.1.xlsx
+++ b/input/images/DAK_scheduling logic_template_v2.1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg.sharepoint.com/sites/InternalComputableGuidelinesWorkingGroup/Shared Documents/General/11. SOP/L2 SOP (work in progress)/L2 templates/GitHub templates (external)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="310" documentId="8_{FABA57D9-5381-4BA5-9EA2-C76C72FE265F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7EDE820-49B1-4DFF-97AE-A76173605F17}"/>
+  <xr:revisionPtr revIDLastSave="313" documentId="8_{FABA57D9-5381-4BA5-9EA2-C76C72FE265F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B735631-99DC-4E9F-8D88-D8BDD4EEEA9E}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D729ECD-ABB9-4D06-ACD8-AACFCEA5F9F1}"/>
   </bookViews>
@@ -3559,11 +3559,13 @@
       </rPr>
       <t xml:space="preserve">
 All reasonable precautions have been taken by WHO to verify the information contained in this publication. However, the published material is being distributed without warranty of any kind, either expressed or implied. The responsibility for the interpretation and use of the material lies with the reader. In no event shall WHO be liable for damages arising from its use.
+The designations employed and the presentation of the material in this publication do not imply the expression of any opinion whatsoever on the part of WHO concerning the legal status of any country, territory, city or area or of its authorities, or concerning the delimitation of its frontiers or boundaries. Dotted and dashed lines on maps represent approximate border lines for which there may not yet be full agreement.
+The mention of specific companies or of certain manufacturers' products does not imply that they are endorsed or recommended by WHO in preference to others of a similar nature that are not mentioned. Errors and omissions excepted, the names of proprietary products are distinguished by initial capital letters.
 Any dispute arising from or relating to this license, including its validity, interpretation, or application, shall, unless amicably settled, be subject to conciliation. In the event the dispute is not resolved by conciliation within thirty (30) days, the dispute shall be settled by arbitration. The arbitration shall be conducted in accordance with the modalities to be agreed upon by the parties or, in the absence of agreement within thirty (30) days of written communication of the intent to commence arbitration, with the UNCITRAL Arbitration Rules. The parties shall accept the arbitral award as final.</t>
     </r>
   </si>
   <si>
-    <t>Template Date: April 14, 2025</t>
+    <t>Template Date: May 09, 2025</t>
   </si>
 </sst>
 </file>
@@ -5961,7 +5963,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6051,7 +6053,7 @@
       <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:5" s="15" customFormat="1" ht="194.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" s="15" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22"/>
       <c r="B10" s="158" t="s">
         <v>278</v>
@@ -9848,63 +9850,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="db15119c-9bb3-4b2d-aba7-a20f2bdcd107">
-      <UserInfo>
-        <DisplayName>BORG, Sarah Ann</DisplayName>
-        <AccountId>39</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>DUVALL, Susan</DisplayName>
-        <AccountId>31</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>RATANAPRAYUL, Natschja</DisplayName>
-        <AccountId>7</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>RAMJAUN, Mohammad Shehzaad</DisplayName>
-        <AccountId>44</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>MACCHAGIRI, Vineel Chandra</DisplayName>
-        <AccountId>53</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>GAFFIELD, Mary Eluned</DisplayName>
-        <AccountId>12</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>gndirangu</DisplayName>
-        <AccountId>103</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ce1eb032-f7c0-42b6-914e-65a5c98ce8c4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="db15119c-9bb3-4b2d-aba7-a20f2bdcd107" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006553529D1FC6824CBA83EEDA5E51662C" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5fd9d8df0be95803e7319e4e8fd6e517">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ce1eb032-f7c0-42b6-914e-65a5c98ce8c4" xmlns:ns3="db15119c-9bb3-4b2d-aba7-a20f2bdcd107" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e496dec2d1664ef4f95c2258d1ac145" ns2:_="" ns3:_="">
     <xsd:import namespace="ce1eb032-f7c0-42b6-914e-65a5c98ce8c4"/>
@@ -10159,28 +10104,64 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD935512-F454-4A53-8449-95D547709634}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="51983ca6-de84-41fa-9a65-1d08ee1009bc"/>
-    <ds:schemaRef ds:uri="73389989-ac93-4f39-a9f3-2949bbf25fcc"/>
-    <ds:schemaRef ds:uri="db15119c-9bb3-4b2d-aba7-a20f2bdcd107"/>
-    <ds:schemaRef ds:uri="ce1eb032-f7c0-42b6-914e-65a5c98ce8c4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="db15119c-9bb3-4b2d-aba7-a20f2bdcd107">
+      <UserInfo>
+        <DisplayName>BORG, Sarah Ann</DisplayName>
+        <AccountId>39</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>DUVALL, Susan</DisplayName>
+        <AccountId>31</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>RATANAPRAYUL, Natschja</DisplayName>
+        <AccountId>7</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>RAMJAUN, Mohammad Shehzaad</DisplayName>
+        <AccountId>44</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>MACCHAGIRI, Vineel Chandra</DisplayName>
+        <AccountId>53</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>GAFFIELD, Mary Eluned</DisplayName>
+        <AccountId>12</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>gndirangu</DisplayName>
+        <AccountId>103</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ce1eb032-f7c0-42b6-914e-65a5c98ce8c4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="db15119c-9bb3-4b2d-aba7-a20f2bdcd107" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45D0A8BA-5511-40DD-A144-F9F7C2155F2F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D01220B-FCBF-438E-84D6-AECA92EE523A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10197,4 +10178,25 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD935512-F454-4A53-8449-95D547709634}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="51983ca6-de84-41fa-9a65-1d08ee1009bc"/>
+    <ds:schemaRef ds:uri="73389989-ac93-4f39-a9f3-2949bbf25fcc"/>
+    <ds:schemaRef ds:uri="db15119c-9bb3-4b2d-aba7-a20f2bdcd107"/>
+    <ds:schemaRef ds:uri="ce1eb032-f7c0-42b6-914e-65a5c98ce8c4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45D0A8BA-5511-40DD-A144-F9F7C2155F2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>